--- a/新江淮P1410油箱左置皮卡皮卡车架检验表 .xlsx
+++ b/新江淮P1410油箱左置皮卡皮卡车架检验表 .xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="108">
   <si>
     <t>车身第四支座</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,23 +263,11 @@
     <t>误差值</t>
   </si>
   <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>误差值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>误差值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-634</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -432,10 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-2770</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B6-L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,191 +508,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-530</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>530</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-632</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1694</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-634</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1694</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2439</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2439</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-594</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2770</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-545</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3904</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-587</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3904</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4286</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4286</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-388</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-245</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>388</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-245</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2853</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2853</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-904</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1325</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>904</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-940</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1325</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>940</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1869</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1869</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-841</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2056.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167.59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1007.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81.32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2834.96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>186.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2836.42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1026.71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-82.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3095.97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-923.67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3094.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82.41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-93.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3865.41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3865.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-970.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-90.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-96</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1468,7 +1408,7 @@
   <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:G1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1530,7 +1470,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="40" t="s">
@@ -1543,12 +1483,12 @@
         <v>25</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4" s="43"/>
       <c r="I4" s="44"/>
       <c r="J4" s="33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1561,19 +1501,19 @@
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>4</v>
@@ -1582,25 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>122</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1621,7 +1555,7 @@
       <c r="A8" s="25"/>
       <c r="B8" s="28"/>
       <c r="C8" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -1633,7 +1567,7 @@
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>4</v>
@@ -1642,23 +1576,17 @@
         <v>27</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>122</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1679,7 +1607,7 @@
       <c r="A11" s="25"/>
       <c r="B11" s="28"/>
       <c r="C11" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -1691,7 +1619,7 @@
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>5</v>
@@ -1705,18 +1633,12 @@
       <c r="E12" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="17">
-        <v>100</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>122</v>
-      </c>
+      <c r="F12" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1737,7 +1659,7 @@
       <c r="A14" s="25"/>
       <c r="B14" s="28"/>
       <c r="C14" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -1749,7 +1671,7 @@
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>5</v>
@@ -1758,13 +1680,13 @@
         <v>26</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="17">
-        <v>100</v>
+        <v>79</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -1789,7 +1711,7 @@
       <c r="A17" s="25"/>
       <c r="B17" s="28"/>
       <c r="C17" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1801,7 +1723,7 @@
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>6</v>
@@ -1810,13 +1732,13 @@
         <v>26</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="17">
-        <v>100</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
@@ -1853,7 +1775,7 @@
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>6</v>
@@ -1862,13 +1784,13 @@
         <v>26</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="17">
-        <v>100</v>
+        <v>87</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
@@ -1905,7 +1827,7 @@
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>0</v>
@@ -1914,13 +1836,13 @@
         <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="17">
-        <v>77</v>
+        <v>91</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
@@ -1957,7 +1879,7 @@
     </row>
     <row r="27" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>0</v>
@@ -1966,13 +1888,13 @@
         <v>26</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="17">
-        <v>77</v>
+        <v>93</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
@@ -2009,7 +1931,7 @@
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>7</v>
@@ -2018,13 +1940,13 @@
         <v>26</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="17">
-        <v>203.5</v>
+        <v>100</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
@@ -2061,7 +1983,7 @@
     </row>
     <row r="33" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>7</v>
@@ -2070,13 +1992,13 @@
         <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="17">
-        <v>203.5</v>
+        <v>97</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
@@ -2113,7 +2035,7 @@
     </row>
     <row r="36" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>8</v>
@@ -2122,13 +2044,13 @@
         <v>26</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="17">
-        <v>220</v>
+        <v>103</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
@@ -2165,7 +2087,7 @@
     </row>
     <row r="39" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>8</v>
@@ -2174,13 +2096,13 @@
         <v>26</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="17">
-        <v>220</v>
+        <v>105</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
@@ -2217,7 +2139,7 @@
     </row>
     <row r="42" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B42" s="27" t="s">
         <v>9</v>
@@ -2225,14 +2147,10 @@
       <c r="C42" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F42" s="17">
-        <v>187</v>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
@@ -2269,7 +2187,7 @@
     </row>
     <row r="45" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B45" s="27" t="s">
         <v>9</v>
@@ -2277,15 +2195,9 @@
       <c r="C45" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F45" s="17">
-        <v>187</v>
-      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
@@ -2321,7 +2233,7 @@
     </row>
     <row r="48" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B48" s="27" t="s">
         <v>19</v>
@@ -2329,15 +2241,9 @@
       <c r="C48" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" s="17">
-        <v>178</v>
-      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
@@ -2373,7 +2279,7 @@
     </row>
     <row r="51" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B51" s="27" t="s">
         <v>19</v>
@@ -2381,15 +2287,9 @@
       <c r="C51" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51" s="17">
-        <v>178</v>
-      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
@@ -2425,7 +2325,7 @@
     </row>
     <row r="54" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B54" s="27" t="s">
         <v>10</v>
@@ -2433,15 +2333,9 @@
       <c r="C54" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54" s="17">
-        <v>88</v>
-      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -2477,7 +2371,7 @@
     </row>
     <row r="57" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B57" s="27" t="s">
         <v>10</v>
@@ -2485,15 +2379,9 @@
       <c r="C57" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F57" s="17">
-        <v>88</v>
-      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -2529,7 +2417,7 @@
     </row>
     <row r="60" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B60" s="27" t="s">
         <v>11</v>
@@ -2537,15 +2425,9 @@
       <c r="C60" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F60" s="17">
-        <v>100</v>
-      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -2581,7 +2463,7 @@
     </row>
     <row r="63" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B63" s="27" t="s">
         <v>11</v>
@@ -2589,15 +2471,9 @@
       <c r="C63" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F63" s="17">
-        <v>100</v>
-      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
@@ -2633,7 +2509,7 @@
     </row>
     <row r="66" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B66" s="27" t="s">
         <v>15</v>
@@ -2641,15 +2517,9 @@
       <c r="C66" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" s="17">
-        <v>141</v>
-      </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
@@ -2685,7 +2555,7 @@
     </row>
     <row r="69" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B69" s="27" t="s">
         <v>15</v>
@@ -2693,15 +2563,9 @@
       <c r="C69" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F69" s="17">
-        <v>141</v>
-      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
@@ -2737,7 +2601,7 @@
     </row>
     <row r="72" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B72" s="27" t="s">
         <v>12</v>
@@ -2745,15 +2609,9 @@
       <c r="C72" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F72" s="17">
-        <v>52</v>
-      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
@@ -2789,7 +2647,7 @@
     </row>
     <row r="75" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B75" s="27" t="s">
         <v>12</v>
@@ -2797,15 +2655,9 @@
       <c r="C75" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F75" s="17">
-        <v>52</v>
-      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
@@ -2841,7 +2693,7 @@
     </row>
     <row r="78" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>13</v>
@@ -2849,15 +2701,9 @@
       <c r="C78" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F78" s="17">
-        <v>100</v>
-      </c>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
@@ -2893,7 +2739,7 @@
     </row>
     <row r="81" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>13</v>
@@ -2901,15 +2747,9 @@
       <c r="C81" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F81" s="17">
-        <v>100</v>
-      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
@@ -2945,7 +2785,7 @@
     </row>
     <row r="84" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>14</v>
@@ -2953,15 +2793,9 @@
       <c r="C84" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F84" s="17">
-        <v>100</v>
-      </c>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
@@ -2997,7 +2831,7 @@
     </row>
     <row r="87" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B87" s="30" t="s">
         <v>14</v>
@@ -3005,15 +2839,9 @@
       <c r="C87" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F87" s="17">
-        <v>100</v>
-      </c>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
@@ -3049,7 +2877,7 @@
     </row>
     <row r="90" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B90" s="27" t="s">
         <v>17</v>
@@ -3057,15 +2885,9 @@
       <c r="C90" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E90" s="17">
-        <v>1325</v>
-      </c>
-      <c r="F90" s="17">
-        <v>100</v>
-      </c>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
@@ -3101,7 +2923,7 @@
     </row>
     <row r="93" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B93" s="27" t="s">
         <v>17</v>
@@ -3109,15 +2931,9 @@
       <c r="C93" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D93" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F93" s="17">
-        <v>100</v>
-      </c>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
@@ -3153,7 +2969,7 @@
     </row>
     <row r="96" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B96" s="27" t="s">
         <v>16</v>
@@ -3161,15 +2977,9 @@
       <c r="C96" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D96" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F96" s="17">
-        <v>100</v>
-      </c>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
@@ -3193,7 +3003,7 @@
       <c r="A98" s="26"/>
       <c r="B98" s="29"/>
       <c r="C98" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="17"/>
@@ -3205,7 +3015,7 @@
     </row>
     <row r="99" spans="1:10" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B99" s="27" t="s">
         <v>16</v>
@@ -3213,15 +3023,9 @@
       <c r="C99" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D99" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F99" s="17">
-        <v>100</v>
-      </c>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
@@ -3245,7 +3049,7 @@
       <c r="A101" s="26"/>
       <c r="B101" s="29"/>
       <c r="C101" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
@@ -3301,13 +3105,19 @@
     <mergeCell ref="A66:A68"/>
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B36:B38"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="B42:B44"/>
@@ -3323,6 +3133,7 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="B99:B101"/>
     <mergeCell ref="A103:I103"/>
@@ -3355,13 +3166,6 @@
     <mergeCell ref="A84:A86"/>
     <mergeCell ref="B84:B86"/>
     <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B36:B38"/>
     <mergeCell ref="A93:A95"/>
     <mergeCell ref="B93:B95"/>
     <mergeCell ref="A75:A77"/>
@@ -3376,9 +3180,6 @@
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.7" bottom="0.79" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="E12 E9:F9 F6 D69:E69 D72:E72" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
